--- a/Jogos_do_Dia/2023-03-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -907,10 +907,10 @@
         <v>1.95</v>
       </c>
       <c r="V2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="W2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>1.67</v>
@@ -1011,10 +1011,10 @@
         <v>1.44</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X3">
         <v>1.37</v>
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
         <v>1.84</v>
@@ -1219,10 +1219,10 @@
         <v>1.25</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="W5">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="X5">
         <v>1.66</v>
@@ -1323,10 +1323,10 @@
         <v>1.53</v>
       </c>
       <c r="V6">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="X6">
         <v>1.26</v>
@@ -1427,10 +1427,10 @@
         <v>1.43</v>
       </c>
       <c r="V7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X7">
         <v>1.75</v>
@@ -1483,13 +1483,13 @@
         <v>90</v>
       </c>
       <c r="F8">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="G8">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H8">
-        <v>6.65</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>91</v>
       </c>
       <c r="F9">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1608,10 +1608,10 @@
         <v>2.55</v>
       </c>
       <c r="M9">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N9">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>92</v>
       </c>
       <c r="F10">
-        <v>4.46</v>
+        <v>5.5</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H10">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.25</v>
       </c>
       <c r="N10">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1795,13 +1795,13 @@
         <v>93</v>
       </c>
       <c r="F11">
-        <v>3.82</v>
+        <v>3.8</v>
       </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H11">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="N11">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2003,13 +2003,13 @@
         <v>95</v>
       </c>
       <c r="F13">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="H13">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2018,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M13">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>97</v>
       </c>
       <c r="F15">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G15">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H15">
-        <v>4.44</v>
+        <v>4.33</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="N15">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>100</v>
       </c>
       <c r="F18">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H18">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2538,16 +2538,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2731,13 +2731,13 @@
         <v>102</v>
       </c>
       <c r="F20">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>2.9</v>
       </c>
       <c r="H20">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         <v>104</v>
       </c>
       <c r="F22">
-        <v>2.05</v>
+        <v>1.71</v>
       </c>
       <c r="G22">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H22">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="I22">
         <v>1.08</v>
@@ -2960,10 +2960,10 @@
         <v>2.65</v>
       </c>
       <c r="M22">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O22">
         <v>1.52</v>
@@ -2987,10 +2987,10 @@
         <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="W22">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="X22">
         <v>1.28</v>
@@ -3043,13 +3043,13 @@
         <v>105</v>
       </c>
       <c r="F23">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G23">
         <v>3.6</v>
       </c>
       <c r="H23">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I23">
         <v>1.04</v>
@@ -3064,10 +3064,10 @@
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="N23">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O23">
         <v>1.36</v>
@@ -3091,10 +3091,10 @@
         <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="W23">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="X23">
         <v>1.65</v>
@@ -3118,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG23">
         <v>1.57</v>
@@ -3147,13 +3147,13 @@
         <v>106</v>
       </c>
       <c r="F24">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G24">
         <v>3.5</v>
       </c>
       <c r="H24">
-        <v>4.05</v>
+        <v>4.33</v>
       </c>
       <c r="I24">
         <v>1.04</v>
@@ -3195,10 +3195,10 @@
         <v>1.83</v>
       </c>
       <c r="V24">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="W24">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="X24">
         <v>1.52</v>
@@ -3219,10 +3219,10 @@
         <v>4.05</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF24">
         <v>2</v>
@@ -3231,7 +3231,7 @@
         <v>2.05</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -3251,13 +3251,13 @@
         <v>107</v>
       </c>
       <c r="F25">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="G25">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H25">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="I25">
         <v>1.04</v>
@@ -3272,10 +3272,10 @@
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="N25">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O25">
         <v>1.36</v>
@@ -3299,10 +3299,10 @@
         <v>1.53</v>
       </c>
       <c r="V25">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="W25">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="X25">
         <v>1.13</v>
@@ -3323,7 +3323,7 @@
         <v>2.4</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE25">
         <v>1.56</v>
@@ -3335,7 +3335,7 @@
         <v>2.41</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3358,10 +3358,10 @@
         <v>1.83</v>
       </c>
       <c r="G26">
+        <v>3.4</v>
+      </c>
+      <c r="H26">
         <v>3.6</v>
-      </c>
-      <c r="H26">
-        <v>3.74</v>
       </c>
       <c r="I26">
         <v>1.02</v>
@@ -3376,10 +3376,10 @@
         <v>4.1</v>
       </c>
       <c r="M26">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="N26">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="O26">
         <v>1.31</v>
@@ -3403,10 +3403,10 @@
         <v>1.92</v>
       </c>
       <c r="V26">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="X26">
         <v>1.68</v>
@@ -3459,13 +3459,13 @@
         <v>109</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G27">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H27">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I27">
         <v>1.05</v>
@@ -3480,10 +3480,10 @@
         <v>3.5</v>
       </c>
       <c r="M27">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="N27">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O27">
         <v>1.36</v>
@@ -3507,10 +3507,10 @@
         <v>1.38</v>
       </c>
       <c r="V27">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="W27">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="X27">
         <v>1.47</v>
@@ -3563,10 +3563,10 @@
         <v>110</v>
       </c>
       <c r="F28">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="G28">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H28">
         <v>2.5</v>
@@ -3584,7 +3584,7 @@
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N28">
         <v>1.8</v>
@@ -3611,10 +3611,10 @@
         <v>1.42</v>
       </c>
       <c r="V28">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W28">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X28">
         <v>1.21</v>
@@ -3667,10 +3667,10 @@
         <v>111</v>
       </c>
       <c r="F29">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="G29">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>2.9</v>
@@ -3688,10 +3688,10 @@
         <v>3.1</v>
       </c>
       <c r="M29">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N29">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="O29">
         <v>1.41</v>
@@ -3715,10 +3715,10 @@
         <v>1.7</v>
       </c>
       <c r="V29">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="W29">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="X29">
         <v>1.44</v>
@@ -3771,13 +3771,13 @@
         <v>112</v>
       </c>
       <c r="F30">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G30">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="H30">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I30">
         <v>1.03</v>
@@ -3792,10 +3792,10 @@
         <v>3.95</v>
       </c>
       <c r="M30">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="N30">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="O30">
         <v>1.35</v>
@@ -3843,19 +3843,19 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3878,10 +3878,10 @@
         <v>2.9</v>
       </c>
       <c r="G31">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H31">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="I31">
         <v>1.05</v>
@@ -3896,10 +3896,10 @@
         <v>3.2</v>
       </c>
       <c r="M31">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O31">
         <v>1.42</v>
@@ -3923,10 +3923,10 @@
         <v>1.4</v>
       </c>
       <c r="V31">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W31">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>1.57</v>
@@ -3979,13 +3979,13 @@
         <v>114</v>
       </c>
       <c r="F32">
-        <v>2.29</v>
+        <v>1.66</v>
       </c>
       <c r="G32">
-        <v>3.22</v>
+        <v>6.4</v>
       </c>
       <c r="H32">
-        <v>3.02</v>
+        <v>2.84</v>
       </c>
       <c r="I32">
         <v>1.07</v>
@@ -4000,10 +4000,10 @@
         <v>2.97</v>
       </c>
       <c r="M32">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="O32">
         <v>1.45</v>
@@ -4051,19 +4051,19 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF32">
         <v>1.88</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="33" spans="1:34">
@@ -4083,13 +4083,13 @@
         <v>115</v>
       </c>
       <c r="F33">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="G33">
-        <v>3.35</v>
+        <v>4.71</v>
       </c>
       <c r="H33">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -4104,10 +4104,10 @@
         <v>4.05</v>
       </c>
       <c r="M33">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="N33">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
         <v>1.33</v>
@@ -4164,7 +4164,7 @@
         <v>2.47</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4187,52 +4187,52 @@
         <v>116</v>
       </c>
       <c r="F34">
-        <v>3.67</v>
+        <v>3.62</v>
       </c>
       <c r="G34">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="H34">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K34">
+        <v>1.39</v>
+      </c>
+      <c r="L34">
+        <v>2.7</v>
+      </c>
+      <c r="M34">
+        <v>2.16</v>
+      </c>
+      <c r="N34">
+        <v>1.57</v>
+      </c>
+      <c r="O34">
         <v>1.49</v>
       </c>
-      <c r="L34">
-        <v>2.44</v>
-      </c>
-      <c r="M34">
-        <v>2.22</v>
-      </c>
-      <c r="N34">
-        <v>1.59</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
       <c r="P34">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -4395,52 +4395,52 @@
         <v>118</v>
       </c>
       <c r="F36">
-        <v>2.32</v>
+        <v>3.82</v>
       </c>
       <c r="G36">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H36">
-        <v>3.07</v>
+        <v>3.86</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="N36">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V36">
         <v>1.58</v>
